--- a/LFC AM Development_Cell Eng & Prod.xlsx
+++ b/LFC AM Development_Cell Eng & Prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertBlack\Documents\Engineering\Rate_Performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C19061-5830-4CEF-A89F-E3043B8858FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D402810-0DC8-4D2C-8572-DC72ED8D4FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="593" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="167">
   <si>
     <t>Date</t>
   </si>
@@ -473,15 +473,133 @@
   </si>
   <si>
     <t>PAM-LFC-12-04-25-CELL4</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A1</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A2</t>
+  </si>
+  <si>
+    <t>Rested Overnight</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DChg - 1C Conditioning </t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chg - 1C Conditioning </t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A5</t>
+  </si>
+  <si>
+    <t>5C DChg - 8 Minutes</t>
+  </si>
+  <si>
+    <t>C/10 - Chg</t>
+  </si>
+  <si>
+    <t>NW 3, 2-1</t>
+  </si>
+  <si>
+    <t>Dec 12,2025</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A6</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A7</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A8</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A9</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A10</t>
+  </si>
+  <si>
+    <t>1C DChg - 18 Minutes</t>
+  </si>
+  <si>
+    <t>NW 3, 2-2</t>
+  </si>
+  <si>
+    <t>Dec 11,2025</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A11</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A12</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A13</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A14</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A15</t>
+  </si>
+  <si>
+    <t>5C DChg - 5 Minutes</t>
+  </si>
+  <si>
+    <t>C/10 - Chg, 24 HR Rest</t>
+  </si>
+  <si>
+    <t>NW 3, 2-3</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A16</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A17</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A18</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A19</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-A20</t>
+  </si>
+  <si>
+    <t>1C DChg - 5 Minutes</t>
+  </si>
+  <si>
+    <t>NW 3, 2-4</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-25-CELL4</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-25-CELL3</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-25-CELL2</t>
+  </si>
+  <si>
+    <t>PAM-LFC-12-10-25-CELL1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -784,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -986,6 +1104,24 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,8 +1426,8 @@
   <dimension ref="A1:AM157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8563,13 +8699,2590 @@
       </c>
       <c r="AM68" s="14"/>
     </row>
-    <row r="69" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C69" s="5">
+        <v>300</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J69" s="4">
+        <v>15.47</v>
+      </c>
+      <c r="K69" s="46">
+        <f>J69-6.51</f>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="L69" s="47">
+        <f>K69*H69</f>
+        <v>7.7056000000000004</v>
+      </c>
+      <c r="M69" s="46">
+        <f>L69/(275*2)*1000</f>
+        <v>14.010181818181819</v>
+      </c>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q69" s="4">
+        <v>223</v>
+      </c>
+      <c r="R69" s="4">
+        <v>194</v>
+      </c>
+      <c r="S69" s="5">
+        <v>177</v>
+      </c>
+      <c r="T69" s="5">
+        <v>168</v>
+      </c>
+      <c r="U69" s="5">
+        <v>155</v>
+      </c>
+      <c r="V69" s="48" cm="1">
+        <f t="array" ref="V69">AVERAGE((P69:R69)-30.75)</f>
+        <v>182.25</v>
+      </c>
+      <c r="W69" s="46">
+        <f>V69/10000</f>
+        <v>1.8225000000000002E-2</v>
+      </c>
+      <c r="X69" s="48">
+        <f>AVERAGE(S69:U69)</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="Y69" s="46">
+        <f>X69-30.75</f>
+        <v>135.91666666666666</v>
+      </c>
+      <c r="Z69" s="47">
+        <f>Y69/10000</f>
+        <v>1.3591666666666665E-2</v>
+      </c>
+      <c r="AA69" s="47">
+        <f>11*25*W69</f>
+        <v>5.0118750000000007</v>
+      </c>
+      <c r="AB69" s="47">
+        <f>11*25*Z69</f>
+        <v>3.737708333333333</v>
+      </c>
+      <c r="AC69" s="46">
+        <f>K69/AA69</f>
+        <v>1.7877540840503803</v>
+      </c>
+      <c r="AD69" s="46">
+        <f>K69/AB69</f>
+        <v>2.3971907920405777</v>
+      </c>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4">
+        <v>5.21</v>
+      </c>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="46">
+        <f>AVERAGE(AE69:AG69)</f>
+        <v>5.21</v>
+      </c>
+      <c r="AI69" s="4">
+        <v>13.05</v>
+      </c>
+      <c r="AJ69" s="54"/>
+      <c r="AK69" s="50"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="14"/>
+    </row>
+    <row r="70" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C70" s="1">
+        <v>300</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J70" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="K70" s="10">
+        <f>J70-6.51</f>
+        <v>8.69</v>
+      </c>
+      <c r="L70" s="9">
+        <f>K70*H70</f>
+        <v>7.4733999999999998</v>
+      </c>
+      <c r="M70" s="10">
+        <f>L70/(275*2)*1000</f>
+        <v>13.587999999999999</v>
+      </c>
+      <c r="O70" s="10"/>
+      <c r="P70" s="3">
+        <v>220</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>207</v>
+      </c>
+      <c r="R70" s="3">
+        <v>205</v>
+      </c>
+      <c r="S70" s="1">
+        <v>172</v>
+      </c>
+      <c r="T70" s="1">
+        <v>154</v>
+      </c>
+      <c r="U70" s="1">
+        <v>163</v>
+      </c>
+      <c r="V70" s="11" cm="1">
+        <f t="array" ref="V70">AVERAGE((P70:R70)-30.75)</f>
+        <v>179.91666666666666</v>
+      </c>
+      <c r="W70" s="10">
+        <f>V70/10000</f>
+        <v>1.7991666666666666E-2</v>
+      </c>
+      <c r="X70" s="11">
+        <f>AVERAGE(S70:U70)</f>
+        <v>163</v>
+      </c>
+      <c r="Y70" s="10">
+        <f>X70-30.75</f>
+        <v>132.25</v>
+      </c>
+      <c r="Z70" s="9">
+        <f>Y70/10000</f>
+        <v>1.3225000000000001E-2</v>
+      </c>
+      <c r="AA70" s="9">
+        <f>11*25*W70</f>
+        <v>4.9477083333333329</v>
+      </c>
+      <c r="AB70" s="9">
+        <f>11*25*Z70</f>
+        <v>3.6368750000000003</v>
+      </c>
+      <c r="AC70" s="10">
+        <f>K70/AA70</f>
+        <v>1.7563686892079666</v>
+      </c>
+      <c r="AD70" s="10">
+        <f>K70/AB70</f>
+        <v>2.3894139886578447</v>
+      </c>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3">
+        <v>4.55</v>
+      </c>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="10">
+        <f>AVERAGE(AE70:AG70)</f>
+        <v>4.55</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>12.85</v>
+      </c>
+      <c r="AJ70" s="55"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="26"/>
+      <c r="AM70" s="14"/>
+    </row>
+    <row r="71" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C71" s="1">
+        <v>300</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J71" s="3">
+        <v>15.23</v>
+      </c>
+      <c r="K71" s="10">
+        <f>J71-6.51</f>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L71" s="9">
+        <f>K71*H71</f>
+        <v>7.4992000000000001</v>
+      </c>
+      <c r="M71" s="10">
+        <f>L71/(275*2)*1000</f>
+        <v>13.634909090909092</v>
+      </c>
+      <c r="O71" s="72"/>
+      <c r="P71" s="3">
+        <v>209</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>210</v>
+      </c>
+      <c r="R71" s="3">
+        <v>211</v>
+      </c>
+      <c r="S71" s="1">
+        <v>167</v>
+      </c>
+      <c r="T71" s="1">
+        <v>164</v>
+      </c>
+      <c r="U71" s="1">
+        <v>168</v>
+      </c>
+      <c r="V71" s="11" cm="1">
+        <f t="array" ref="V71">AVERAGE((P71:R71)-30.75)</f>
+        <v>179.25</v>
+      </c>
+      <c r="W71" s="10">
+        <f>V71/10000</f>
+        <v>1.7925E-2</v>
+      </c>
+      <c r="X71" s="11">
+        <f>AVERAGE(S71:U71)</f>
+        <v>166.33333333333334</v>
+      </c>
+      <c r="Y71" s="10">
+        <f>X71-30.75</f>
+        <v>135.58333333333334</v>
+      </c>
+      <c r="Z71" s="9">
+        <f>Y71/10000</f>
+        <v>1.3558333333333334E-2</v>
+      </c>
+      <c r="AA71" s="9">
+        <f>11*25*W71</f>
+        <v>4.9293750000000003</v>
+      </c>
+      <c r="AB71" s="9">
+        <f>11*25*Z71</f>
+        <v>3.7285416666666666</v>
+      </c>
+      <c r="AC71" s="10">
+        <f>K71/AA71</f>
+        <v>1.7689869405350578</v>
+      </c>
+      <c r="AD71" s="10">
+        <f>K71/AB71</f>
+        <v>2.338715985919428</v>
+      </c>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="10">
+        <f>AVERAGE(AE71:AG71)</f>
+        <v>4.21</v>
+      </c>
+      <c r="AI71" s="3">
+        <v>12.36</v>
+      </c>
+      <c r="AJ71" s="55"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="26"/>
+      <c r="AM71" s="14"/>
+    </row>
+    <row r="72" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C72" s="1">
+        <v>300</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="3">
+        <v>14.64</v>
+      </c>
+      <c r="K72" s="10">
+        <f>J72-6.51</f>
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L72" s="9">
+        <f>K72*H72</f>
+        <v>6.9918000000000005</v>
+      </c>
+      <c r="M72" s="10">
+        <f>L72/(275*2)*1000</f>
+        <v>12.712363636363637</v>
+      </c>
+      <c r="O72" s="72"/>
+      <c r="P72" s="3">
+        <v>187</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>205</v>
+      </c>
+      <c r="R72" s="3">
+        <v>203</v>
+      </c>
+      <c r="S72" s="1">
+        <v>154</v>
+      </c>
+      <c r="T72" s="1">
+        <v>157</v>
+      </c>
+      <c r="U72" s="1">
+        <v>163</v>
+      </c>
+      <c r="V72" s="11" cm="1">
+        <f t="array" ref="V72">AVERAGE((P72:R72)-30.75)</f>
+        <v>167.58333333333334</v>
+      </c>
+      <c r="W72" s="10">
+        <f>V72/10000</f>
+        <v>1.6758333333333333E-2</v>
+      </c>
+      <c r="X72" s="11">
+        <f>AVERAGE(S72:U72)</f>
+        <v>158</v>
+      </c>
+      <c r="Y72" s="10">
+        <f>X72-30.75</f>
+        <v>127.25</v>
+      </c>
+      <c r="Z72" s="9">
+        <f>Y72/10000</f>
+        <v>1.2725E-2</v>
+      </c>
+      <c r="AA72" s="9">
+        <f>11*25*W72</f>
+        <v>4.6085416666666665</v>
+      </c>
+      <c r="AB72" s="9">
+        <f>11*25*Z72</f>
+        <v>3.4993750000000001</v>
+      </c>
+      <c r="AC72" s="10">
+        <f>K72/AA72</f>
+        <v>1.7641155463134581</v>
+      </c>
+      <c r="AD72" s="10">
+        <f>K72/AB72</f>
+        <v>2.3232720128594395</v>
+      </c>
+      <c r="AE72" s="3"/>
+      <c r="AF72" s="3">
+        <v>4.87</v>
+      </c>
+      <c r="AG72" s="3"/>
+      <c r="AH72" s="10">
+        <f>AVERAGE(AE72:AG72)</f>
+        <v>4.87</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>12.24</v>
+      </c>
+      <c r="AJ72" s="55"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="26"/>
+      <c r="AM72" s="14"/>
+    </row>
+    <row r="73" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C73" s="1">
+        <v>300</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J73" s="3">
+        <v>14.76</v>
+      </c>
+      <c r="K73" s="10">
+        <f>J73-6.51</f>
+        <v>8.25</v>
+      </c>
+      <c r="L73" s="9">
+        <f>K73*H73</f>
+        <v>7.0949999999999998</v>
+      </c>
+      <c r="M73" s="10">
+        <f>L73/(275*2)*1000</f>
+        <v>12.9</v>
+      </c>
+      <c r="O73" s="72"/>
+      <c r="P73" s="3">
+        <v>207</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>207</v>
+      </c>
+      <c r="R73" s="3">
+        <v>189</v>
+      </c>
+      <c r="S73" s="1">
+        <v>166</v>
+      </c>
+      <c r="T73" s="1">
+        <v>159</v>
+      </c>
+      <c r="U73" s="1">
+        <v>164</v>
+      </c>
+      <c r="V73" s="11" cm="1">
+        <f t="array" ref="V73">AVERAGE((P73:R73)-30.75)</f>
+        <v>170.25</v>
+      </c>
+      <c r="W73" s="10">
+        <f>V73/10000</f>
+        <v>1.7024999999999998E-2</v>
+      </c>
+      <c r="X73" s="11">
+        <f>AVERAGE(S73:U73)</f>
+        <v>163</v>
+      </c>
+      <c r="Y73" s="10">
+        <f>X73-30.75</f>
+        <v>132.25</v>
+      </c>
+      <c r="Z73" s="9">
+        <f>Y73/10000</f>
+        <v>1.3225000000000001E-2</v>
+      </c>
+      <c r="AA73" s="9">
+        <f>11*25*W73</f>
+        <v>4.6818749999999998</v>
+      </c>
+      <c r="AB73" s="9">
+        <f>11*25*Z73</f>
+        <v>3.6368750000000003</v>
+      </c>
+      <c r="AC73" s="10">
+        <f>K73/AA73</f>
+        <v>1.7621145374449341</v>
+      </c>
+      <c r="AD73" s="10">
+        <f>K73/AB73</f>
+        <v>2.2684310018903591</v>
+      </c>
+      <c r="AE73" s="3"/>
+      <c r="AF73" s="3">
+        <v>4.66</v>
+      </c>
+      <c r="AG73" s="3"/>
+      <c r="AH73" s="10">
+        <f>AVERAGE(AE73:AG73)</f>
+        <v>4.66</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>12.82</v>
+      </c>
+      <c r="AJ73" s="55"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="26"/>
+      <c r="AM73" s="14"/>
+    </row>
+    <row r="74" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="42">
+        <v>46001</v>
+      </c>
+      <c r="C74" s="34">
+        <v>300</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="8"/>
+      <c r="G74" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="H74" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="I74" s="27"/>
+      <c r="J74" s="29"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="30">
+        <f>SUM(K69:K73)*H74</f>
+        <v>36.765000000000001</v>
+      </c>
+      <c r="M74" s="29">
+        <f>MIN(M69:M73)</f>
+        <v>12.712363636363637</v>
+      </c>
+      <c r="N74" s="71">
+        <v>375</v>
+      </c>
+      <c r="O74" s="73">
+        <v>13.787000000000001</v>
+      </c>
+      <c r="P74" s="58"/>
+      <c r="Q74" s="59"/>
+      <c r="R74" s="59"/>
+      <c r="S74" s="59"/>
+      <c r="T74" s="59"/>
+      <c r="U74" s="59"/>
+      <c r="V74" s="59"/>
+      <c r="W74" s="59"/>
+      <c r="X74" s="59"/>
+      <c r="Y74" s="59"/>
+      <c r="Z74" s="59"/>
+      <c r="AA74" s="59"/>
+      <c r="AB74" s="59"/>
+      <c r="AC74" s="59"/>
+      <c r="AD74" s="59"/>
+      <c r="AE74" s="59"/>
+      <c r="AF74" s="59"/>
+      <c r="AG74" s="59"/>
+      <c r="AH74" s="59"/>
+      <c r="AI74" s="60"/>
+      <c r="AJ74" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK74" s="32"/>
+      <c r="AL74" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM74" s="14"/>
+    </row>
+    <row r="75" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C75" s="1">
+        <v>300</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H75" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J75" s="19">
+        <v>15.23</v>
+      </c>
+      <c r="K75" s="21">
+        <f>J75-6.51</f>
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="L75" s="20">
+        <f>K75*H75</f>
+        <v>7.4992000000000001</v>
+      </c>
+      <c r="M75" s="21">
+        <f>L75/(275*2)*1000</f>
+        <v>13.634909090909092</v>
+      </c>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="19">
+        <v>211</v>
+      </c>
+      <c r="Q75" s="19">
+        <v>215</v>
+      </c>
+      <c r="R75" s="19">
+        <v>206</v>
+      </c>
+      <c r="S75" s="16">
+        <v>168</v>
+      </c>
+      <c r="T75" s="16">
+        <v>169</v>
+      </c>
+      <c r="U75" s="16">
+        <v>162</v>
+      </c>
+      <c r="V75" s="22" cm="1">
+        <f t="array" ref="V75">AVERAGE((P75:R75)-30.75)</f>
+        <v>179.91666666666666</v>
+      </c>
+      <c r="W75" s="21">
+        <f>V75/10000</f>
+        <v>1.7991666666666666E-2</v>
+      </c>
+      <c r="X75" s="22">
+        <f>AVERAGE(S75:U75)</f>
+        <v>166.33333333333334</v>
+      </c>
+      <c r="Y75" s="21">
+        <f>X75-30.75</f>
+        <v>135.58333333333334</v>
+      </c>
+      <c r="Z75" s="20">
+        <f>Y75/10000</f>
+        <v>1.3558333333333334E-2</v>
+      </c>
+      <c r="AA75" s="20">
+        <f>11*25*W75</f>
+        <v>4.9477083333333329</v>
+      </c>
+      <c r="AB75" s="20">
+        <f>11*25*Z75</f>
+        <v>3.7285416666666666</v>
+      </c>
+      <c r="AC75" s="21">
+        <f>K75/AA75</f>
+        <v>1.7624321024043121</v>
+      </c>
+      <c r="AD75" s="21">
+        <f>K75/AB75</f>
+        <v>2.338715985919428</v>
+      </c>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19">
+        <v>4.55</v>
+      </c>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="21">
+        <f>AVERAGE(AE75:AG75)</f>
+        <v>4.55</v>
+      </c>
+      <c r="AI75" s="19">
+        <v>9.84</v>
+      </c>
+      <c r="AJ75" s="56"/>
+      <c r="AK75" s="24"/>
+      <c r="AL75" s="25"/>
+      <c r="AM75" s="14"/>
+    </row>
+    <row r="76" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B76" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C76" s="1">
+        <v>300</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14.67</v>
+      </c>
+      <c r="K76" s="10">
+        <f>J76-6.51</f>
+        <v>8.16</v>
+      </c>
+      <c r="L76" s="9">
+        <f>K76*H76</f>
+        <v>7.0175999999999998</v>
+      </c>
+      <c r="M76" s="10">
+        <f>L76/(275*2)*1000</f>
+        <v>12.759272727272727</v>
+      </c>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="3">
+        <v>202</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>181</v>
+      </c>
+      <c r="S76" s="1">
+        <v>160</v>
+      </c>
+      <c r="T76" s="1">
+        <v>155</v>
+      </c>
+      <c r="U76" s="1">
+        <v>153</v>
+      </c>
+      <c r="V76" s="11" cm="1">
+        <f t="array" ref="V76">AVERAGE((P76:R76)-30.75)</f>
+        <v>163.58333333333334</v>
+      </c>
+      <c r="W76" s="10">
+        <f>V76/10000</f>
+        <v>1.6358333333333336E-2</v>
+      </c>
+      <c r="X76" s="11">
+        <f>AVERAGE(S76:U76)</f>
+        <v>156</v>
+      </c>
+      <c r="Y76" s="10">
+        <f>X76-30.75</f>
+        <v>125.25</v>
+      </c>
+      <c r="Z76" s="9">
+        <f>Y76/10000</f>
+        <v>1.2525E-2</v>
+      </c>
+      <c r="AA76" s="9">
+        <f>11*25*W76</f>
+        <v>4.4985416666666671</v>
+      </c>
+      <c r="AB76" s="9">
+        <f>11*25*Z76</f>
+        <v>3.444375</v>
+      </c>
+      <c r="AC76" s="10">
+        <f>K76/AA76</f>
+        <v>1.8139211781595885</v>
+      </c>
+      <c r="AD76" s="10">
+        <f>K76/AB76</f>
+        <v>2.3690800217746326</v>
+      </c>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="10">
+        <f>AVERAGE(AE76:AG76)</f>
+        <v>4.49</v>
+      </c>
+      <c r="AI76" s="3">
+        <v>12.33</v>
+      </c>
+      <c r="AJ76" s="55"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="26"/>
+      <c r="AM76" s="14"/>
+    </row>
+    <row r="77" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B77" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C77" s="1">
+        <v>300</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J77" s="3">
+        <v>15.58</v>
+      </c>
+      <c r="K77" s="10">
+        <f>J77-6.51</f>
+        <v>9.07</v>
+      </c>
+      <c r="L77" s="9">
+        <f>K77*H77</f>
+        <v>7.8002000000000002</v>
+      </c>
+      <c r="M77" s="10">
+        <f>L77/(275*2)*1000</f>
+        <v>14.182181818181819</v>
+      </c>
+      <c r="O77" s="72"/>
+      <c r="P77" s="3">
+        <v>218</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>222</v>
+      </c>
+      <c r="R77" s="3">
+        <v>214</v>
+      </c>
+      <c r="S77" s="1">
+        <v>172</v>
+      </c>
+      <c r="T77" s="1">
+        <v>169</v>
+      </c>
+      <c r="U77" s="1">
+        <v>165</v>
+      </c>
+      <c r="V77" s="11" cm="1">
+        <f t="array" ref="V77">AVERAGE((P77:R77)-30.75)</f>
+        <v>187.25</v>
+      </c>
+      <c r="W77" s="10">
+        <f>V77/10000</f>
+        <v>1.8724999999999999E-2</v>
+      </c>
+      <c r="X77" s="11">
+        <f>AVERAGE(S77:U77)</f>
+        <v>168.66666666666666</v>
+      </c>
+      <c r="Y77" s="10">
+        <f>X77-30.75</f>
+        <v>137.91666666666666</v>
+      </c>
+      <c r="Z77" s="9">
+        <f>Y77/10000</f>
+        <v>1.3791666666666666E-2</v>
+      </c>
+      <c r="AA77" s="9">
+        <f>11*25*W77</f>
+        <v>5.149375</v>
+      </c>
+      <c r="AB77" s="9">
+        <f>11*25*Z77</f>
+        <v>3.7927083333333331</v>
+      </c>
+      <c r="AC77" s="10">
+        <f>K77/AA77</f>
+        <v>1.7613788081077801</v>
+      </c>
+      <c r="AD77" s="10">
+        <f>K77/AB77</f>
+        <v>2.3914309255698987</v>
+      </c>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="10">
+        <f>AVERAGE(AE77:AG77)</f>
+        <v>4.16</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>11.08</v>
+      </c>
+      <c r="AJ77" s="55"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="26"/>
+      <c r="AM77" s="14"/>
+    </row>
+    <row r="78" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B78" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C78" s="1">
+        <v>300</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H78" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J78" s="3">
+        <v>15.84</v>
+      </c>
+      <c r="K78" s="10">
+        <f>J78-6.51</f>
+        <v>9.33</v>
+      </c>
+      <c r="L78" s="9">
+        <f>K78*H78</f>
+        <v>8.0237999999999996</v>
+      </c>
+      <c r="M78" s="10">
+        <f>L78/(275*2)*1000</f>
+        <v>14.588727272727272</v>
+      </c>
+      <c r="O78" s="72"/>
+      <c r="P78" s="3">
+        <v>217</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>223</v>
+      </c>
+      <c r="R78" s="3">
+        <v>218</v>
+      </c>
+      <c r="S78" s="1">
+        <v>167</v>
+      </c>
+      <c r="T78" s="1">
+        <v>162</v>
+      </c>
+      <c r="U78" s="1">
+        <v>166</v>
+      </c>
+      <c r="V78" s="11" cm="1">
+        <f t="array" ref="V78">AVERAGE((P78:R78)-30.75)</f>
+        <v>188.58333333333334</v>
+      </c>
+      <c r="W78" s="10">
+        <f>V78/10000</f>
+        <v>1.8858333333333335E-2</v>
+      </c>
+      <c r="X78" s="11">
+        <f>AVERAGE(S78:U78)</f>
+        <v>165</v>
+      </c>
+      <c r="Y78" s="10">
+        <f>X78-30.75</f>
+        <v>134.25</v>
+      </c>
+      <c r="Z78" s="9">
+        <f>Y78/10000</f>
+        <v>1.3424999999999999E-2</v>
+      </c>
+      <c r="AA78" s="9">
+        <f>11*25*W78</f>
+        <v>5.1860416666666671</v>
+      </c>
+      <c r="AB78" s="9">
+        <f>11*25*Z78</f>
+        <v>3.691875</v>
+      </c>
+      <c r="AC78" s="10">
+        <f>K78/AA78</f>
+        <v>1.7990599767002771</v>
+      </c>
+      <c r="AD78" s="10">
+        <f>K78/AB78</f>
+        <v>2.5271711528694767</v>
+      </c>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="10">
+        <f>AVERAGE(AE78:AG78)</f>
+        <v>4.2</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>10.71</v>
+      </c>
+      <c r="AJ78" s="55"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="26"/>
+      <c r="AM78" s="14"/>
+    </row>
+    <row r="79" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B79" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C79" s="1">
+        <v>300</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H79" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J79" s="3">
+        <v>14.98</v>
+      </c>
+      <c r="K79" s="10">
+        <f>J79-6.51</f>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="L79" s="9">
+        <f>K79*H79</f>
+        <v>7.2842000000000002</v>
+      </c>
+      <c r="M79" s="10">
+        <f>L79/(275*2)*1000</f>
+        <v>13.244</v>
+      </c>
+      <c r="O79" s="72"/>
+      <c r="P79" s="3">
+        <v>201</v>
+      </c>
+      <c r="Q79" s="3">
+        <v>214</v>
+      </c>
+      <c r="R79" s="3">
+        <v>203</v>
+      </c>
+      <c r="S79" s="1">
+        <v>157</v>
+      </c>
+      <c r="T79" s="1">
+        <v>157</v>
+      </c>
+      <c r="U79" s="1">
+        <v>155</v>
+      </c>
+      <c r="V79" s="11" cm="1">
+        <f t="array" ref="V79">AVERAGE((P79:R79)-30.75)</f>
+        <v>175.25</v>
+      </c>
+      <c r="W79" s="10">
+        <f>V79/10000</f>
+        <v>1.7524999999999999E-2</v>
+      </c>
+      <c r="X79" s="11">
+        <f>AVERAGE(S79:U79)</f>
+        <v>156.33333333333334</v>
+      </c>
+      <c r="Y79" s="10">
+        <f>X79-30.75</f>
+        <v>125.58333333333334</v>
+      </c>
+      <c r="Z79" s="9">
+        <f>Y79/10000</f>
+        <v>1.2558333333333335E-2</v>
+      </c>
+      <c r="AA79" s="9">
+        <f>11*25*W79</f>
+        <v>4.819375</v>
+      </c>
+      <c r="AB79" s="9">
+        <f>11*25*Z79</f>
+        <v>3.4535416666666672</v>
+      </c>
+      <c r="AC79" s="10">
+        <f>K79/AA79</f>
+        <v>1.7574893009985737</v>
+      </c>
+      <c r="AD79" s="10">
+        <f>K79/AB79</f>
+        <v>2.4525547445255471</v>
+      </c>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="10">
+        <f>AVERAGE(AE79:AG79)</f>
+        <v>4.59</v>
+      </c>
+      <c r="AI79" s="3">
+        <v>10.43</v>
+      </c>
+      <c r="AJ79" s="55"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="26"/>
+      <c r="AM79" s="14"/>
+    </row>
+    <row r="80" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="42">
+        <v>46001</v>
+      </c>
+      <c r="C80" s="34">
+        <v>300</v>
+      </c>
+      <c r="D80" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" s="8"/>
+      <c r="G80" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="H80" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="I80" s="27"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30">
+        <f>SUM(K75:K79)*H80</f>
+        <v>37.625</v>
+      </c>
+      <c r="M80" s="29">
+        <f>MIN(M75:M79)</f>
+        <v>12.759272727272727</v>
+      </c>
+      <c r="N80" s="71">
+        <v>200</v>
+      </c>
+      <c r="O80" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="P80" s="58"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+      <c r="S80" s="59"/>
+      <c r="T80" s="59"/>
+      <c r="U80" s="59"/>
+      <c r="V80" s="59"/>
+      <c r="W80" s="59"/>
+      <c r="X80" s="59"/>
+      <c r="Y80" s="59"/>
+      <c r="Z80" s="59"/>
+      <c r="AA80" s="59"/>
+      <c r="AB80" s="59"/>
+      <c r="AC80" s="59"/>
+      <c r="AD80" s="59"/>
+      <c r="AE80" s="59"/>
+      <c r="AF80" s="59"/>
+      <c r="AG80" s="59"/>
+      <c r="AH80" s="59"/>
+      <c r="AI80" s="60"/>
+      <c r="AJ80" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK80" s="32">
+        <v>1.577</v>
+      </c>
+      <c r="AL80" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM80" s="14"/>
+    </row>
+    <row r="81" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C81" s="1">
+        <v>300</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H81" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J81" s="19">
+        <v>15.15</v>
+      </c>
+      <c r="K81" s="21">
+        <f>J81-6.51</f>
+        <v>8.64</v>
+      </c>
+      <c r="L81" s="20">
+        <f>K81*H81</f>
+        <v>7.4304000000000006</v>
+      </c>
+      <c r="M81" s="21">
+        <f>L81/(275*2)*1000</f>
+        <v>13.509818181818183</v>
+      </c>
+      <c r="N81" s="21"/>
+      <c r="O81" s="21"/>
+      <c r="P81" s="19">
+        <v>208</v>
+      </c>
+      <c r="Q81" s="19">
+        <v>213</v>
+      </c>
+      <c r="R81" s="19">
+        <v>209</v>
+      </c>
+      <c r="S81" s="16">
+        <v>165</v>
+      </c>
+      <c r="T81" s="16">
+        <v>163</v>
+      </c>
+      <c r="U81" s="16">
+        <v>163</v>
+      </c>
+      <c r="V81" s="22" cm="1">
+        <f t="array" ref="V81">AVERAGE((P81:R81)-30.75)</f>
+        <v>179.25</v>
+      </c>
+      <c r="W81" s="21">
+        <f>V81/10000</f>
+        <v>1.7925E-2</v>
+      </c>
+      <c r="X81" s="22">
+        <f>AVERAGE(S81:U81)</f>
+        <v>163.66666666666666</v>
+      </c>
+      <c r="Y81" s="21">
+        <f>X81-30.75</f>
+        <v>132.91666666666666</v>
+      </c>
+      <c r="Z81" s="20">
+        <f>Y81/10000</f>
+        <v>1.3291666666666665E-2</v>
+      </c>
+      <c r="AA81" s="20">
+        <f>11*25*W81</f>
+        <v>4.9293750000000003</v>
+      </c>
+      <c r="AB81" s="20">
+        <f>11*25*Z81</f>
+        <v>3.6552083333333329</v>
+      </c>
+      <c r="AC81" s="21">
+        <f>K81/AA81</f>
+        <v>1.7527577025484975</v>
+      </c>
+      <c r="AD81" s="21">
+        <f>K81/AB81</f>
+        <v>2.3637503562268458</v>
+      </c>
+      <c r="AE81" s="19"/>
+      <c r="AF81" s="19">
+        <v>4.08</v>
+      </c>
+      <c r="AG81" s="19"/>
+      <c r="AH81" s="21">
+        <f>AVERAGE(AE81:AG81)</f>
+        <v>4.08</v>
+      </c>
+      <c r="AI81" s="19">
+        <v>11.82</v>
+      </c>
+      <c r="AJ81" s="56"/>
+      <c r="AK81" s="24"/>
+      <c r="AL81" s="25"/>
+      <c r="AM81" s="14"/>
+    </row>
+    <row r="82" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C82" s="1">
+        <v>300</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J82" s="3">
+        <v>15.35</v>
+      </c>
+      <c r="K82" s="10">
+        <f>J82-6.51</f>
+        <v>8.84</v>
+      </c>
+      <c r="L82" s="9">
+        <f>K82*H82</f>
+        <v>7.6023999999999994</v>
+      </c>
+      <c r="M82" s="10">
+        <f>L82/(275*2)*1000</f>
+        <v>13.822545454545454</v>
+      </c>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="3">
+        <v>219</v>
+      </c>
+      <c r="Q82" s="3">
+        <v>226</v>
+      </c>
+      <c r="R82" s="3">
+        <v>207</v>
+      </c>
+      <c r="S82" s="1">
+        <v>167</v>
+      </c>
+      <c r="T82" s="1">
+        <v>152</v>
+      </c>
+      <c r="U82" s="1">
+        <v>164</v>
+      </c>
+      <c r="V82" s="11" cm="1">
+        <f t="array" ref="V82">AVERAGE((P82:R82)-30.75)</f>
+        <v>186.58333333333334</v>
+      </c>
+      <c r="W82" s="10">
+        <f>V82/10000</f>
+        <v>1.8658333333333336E-2</v>
+      </c>
+      <c r="X82" s="11">
+        <f>AVERAGE(S82:U82)</f>
+        <v>161</v>
+      </c>
+      <c r="Y82" s="10">
+        <f>X82-30.75</f>
+        <v>130.25</v>
+      </c>
+      <c r="Z82" s="9">
+        <f>Y82/10000</f>
+        <v>1.3025E-2</v>
+      </c>
+      <c r="AA82" s="9">
+        <f>11*25*W82</f>
+        <v>5.1310416666666674</v>
+      </c>
+      <c r="AB82" s="9">
+        <f>11*25*Z82</f>
+        <v>3.5818750000000001</v>
+      </c>
+      <c r="AC82" s="10">
+        <f>K82/AA82</f>
+        <v>1.7228470502253439</v>
+      </c>
+      <c r="AD82" s="10">
+        <f>K82/AB82</f>
+        <v>2.46798115512127</v>
+      </c>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3">
+        <v>4.04</v>
+      </c>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="10">
+        <f>AVERAGE(AE82:AG82)</f>
+        <v>4.04</v>
+      </c>
+      <c r="AI82" s="3">
+        <v>11.68</v>
+      </c>
+      <c r="AJ82" s="55"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="26"/>
+      <c r="AM82" s="14"/>
+    </row>
+    <row r="83" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C83" s="1">
+        <v>300</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="68" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J83" s="3">
+        <v>15.26</v>
+      </c>
+      <c r="K83" s="10">
+        <f>J83-6.51</f>
+        <v>8.75</v>
+      </c>
+      <c r="L83" s="9">
+        <f>K83*H83</f>
+        <v>7.5249999999999995</v>
+      </c>
+      <c r="M83" s="10">
+        <f>L83/(275*2)*1000</f>
+        <v>13.68181818181818</v>
+      </c>
+      <c r="O83" s="72"/>
+      <c r="P83" s="3">
+        <v>213</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>207</v>
+      </c>
+      <c r="R83" s="3">
+        <v>216</v>
+      </c>
+      <c r="S83" s="1">
+        <v>153</v>
+      </c>
+      <c r="T83" s="1">
+        <v>155</v>
+      </c>
+      <c r="U83" s="1">
+        <v>157</v>
+      </c>
+      <c r="V83" s="11" cm="1">
+        <f t="array" ref="V83">AVERAGE((P83:R83)-30.75)</f>
+        <v>181.25</v>
+      </c>
+      <c r="W83" s="10">
+        <f>V83/10000</f>
+        <v>1.8124999999999999E-2</v>
+      </c>
+      <c r="X83" s="11">
+        <f>AVERAGE(S83:U83)</f>
+        <v>155</v>
+      </c>
+      <c r="Y83" s="10">
+        <f>X83-30.75</f>
+        <v>124.25</v>
+      </c>
+      <c r="Z83" s="9">
+        <f>Y83/10000</f>
+        <v>1.2425E-2</v>
+      </c>
+      <c r="AA83" s="9">
+        <f>11*25*W83</f>
+        <v>4.984375</v>
+      </c>
+      <c r="AB83" s="9">
+        <f>11*25*Z83</f>
+        <v>3.4168750000000001</v>
+      </c>
+      <c r="AC83" s="10">
+        <f>K83/AA83</f>
+        <v>1.755485893416928</v>
+      </c>
+      <c r="AD83" s="10">
+        <f>K83/AB83</f>
+        <v>2.5608194622279128</v>
+      </c>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="10">
+        <f>AVERAGE(AE83:AG83)</f>
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AI83" s="3">
+        <v>13.77</v>
+      </c>
+      <c r="AJ83" s="55"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="26"/>
+      <c r="AM83" s="14"/>
+    </row>
+    <row r="84" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C84" s="1">
+        <v>300</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J84" s="3">
+        <v>15.29</v>
+      </c>
+      <c r="K84" s="10">
+        <f>J84-6.51</f>
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="L84" s="9">
+        <f>K84*H84</f>
+        <v>7.5507999999999997</v>
+      </c>
+      <c r="M84" s="10">
+        <f>L84/(275*2)*1000</f>
+        <v>13.728727272727273</v>
+      </c>
+      <c r="O84" s="72"/>
+      <c r="P84" s="3">
+        <v>205</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>232</v>
+      </c>
+      <c r="R84" s="3">
+        <v>212</v>
+      </c>
+      <c r="S84" s="1">
+        <v>158</v>
+      </c>
+      <c r="T84" s="1">
+        <v>156</v>
+      </c>
+      <c r="U84" s="1">
+        <v>161</v>
+      </c>
+      <c r="V84" s="11" cm="1">
+        <f t="array" ref="V84">AVERAGE((P84:R84)-30.75)</f>
+        <v>185.58333333333334</v>
+      </c>
+      <c r="W84" s="10">
+        <f>V84/10000</f>
+        <v>1.8558333333333333E-2</v>
+      </c>
+      <c r="X84" s="11">
+        <f>AVERAGE(S84:U84)</f>
+        <v>158.33333333333334</v>
+      </c>
+      <c r="Y84" s="10">
+        <f>X84-30.75</f>
+        <v>127.58333333333334</v>
+      </c>
+      <c r="Z84" s="9">
+        <f>Y84/10000</f>
+        <v>1.2758333333333335E-2</v>
+      </c>
+      <c r="AA84" s="9">
+        <f>11*25*W84</f>
+        <v>5.1035416666666666</v>
+      </c>
+      <c r="AB84" s="9">
+        <f>11*25*Z84</f>
+        <v>3.5085416666666673</v>
+      </c>
+      <c r="AC84" s="10">
+        <f>K84/AA84</f>
+        <v>1.7203739233375515</v>
+      </c>
+      <c r="AD84" s="10">
+        <f>K84/AB84</f>
+        <v>2.5024642242147133</v>
+      </c>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="10">
+        <f>AVERAGE(AE84:AG84)</f>
+        <v>4.16</v>
+      </c>
+      <c r="AI84" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="AJ84" s="55"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="26"/>
+      <c r="AM84" s="14"/>
+    </row>
+    <row r="85" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C85" s="1">
+        <v>300</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="8"/>
+      <c r="G85" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J85" s="3">
+        <v>15.37</v>
+      </c>
+      <c r="K85" s="10">
+        <f>J85-6.51</f>
+        <v>8.86</v>
+      </c>
+      <c r="L85" s="9">
+        <f>K85*H85</f>
+        <v>7.6195999999999993</v>
+      </c>
+      <c r="M85" s="10">
+        <f>L85/(275*2)*1000</f>
+        <v>13.85381818181818</v>
+      </c>
+      <c r="O85" s="72"/>
+      <c r="P85" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>222</v>
+      </c>
+      <c r="R85" s="3">
+        <v>221</v>
+      </c>
+      <c r="S85" s="1">
+        <v>167</v>
+      </c>
+      <c r="T85" s="1">
+        <v>158</v>
+      </c>
+      <c r="U85" s="1">
+        <v>168</v>
+      </c>
+      <c r="V85" s="11" cm="1">
+        <f t="array" ref="V85">AVERAGE((P85:R85)-30.75)</f>
+        <v>183.58333333333334</v>
+      </c>
+      <c r="W85" s="10">
+        <f>V85/10000</f>
+        <v>1.8358333333333334E-2</v>
+      </c>
+      <c r="X85" s="11">
+        <f>AVERAGE(S85:U85)</f>
+        <v>164.33333333333334</v>
+      </c>
+      <c r="Y85" s="10">
+        <f>X85-30.75</f>
+        <v>133.58333333333334</v>
+      </c>
+      <c r="Z85" s="9">
+        <f>Y85/10000</f>
+        <v>1.3358333333333335E-2</v>
+      </c>
+      <c r="AA85" s="9">
+        <f>11*25*W85</f>
+        <v>5.0485416666666669</v>
+      </c>
+      <c r="AB85" s="9">
+        <f>11*25*Z85</f>
+        <v>3.6735416666666669</v>
+      </c>
+      <c r="AC85" s="10">
+        <f>K85/AA85</f>
+        <v>1.7549622415714108</v>
+      </c>
+      <c r="AD85" s="10">
+        <f>K85/AB85</f>
+        <v>2.4118414336754945</v>
+      </c>
+      <c r="AE85" s="3"/>
+      <c r="AF85" s="3">
+        <v>3.79</v>
+      </c>
+      <c r="AG85" s="3"/>
+      <c r="AH85" s="10">
+        <f>AVERAGE(AE85:AG85)</f>
+        <v>3.79</v>
+      </c>
+      <c r="AI85" s="3">
+        <v>13.62</v>
+      </c>
+      <c r="AJ85" s="55"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="26"/>
+      <c r="AM85" s="14"/>
+    </row>
+    <row r="86" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" s="42">
+        <v>46001</v>
+      </c>
+      <c r="C86" s="34">
+        <v>300</v>
+      </c>
+      <c r="D86" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" s="8"/>
+      <c r="G86" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="H86" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="I86" s="27"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="30">
+        <f>SUM(K81:K85)*H86</f>
+        <v>37.728199999999994</v>
+      </c>
+      <c r="M86" s="29">
+        <f>MIN(M81:M85)</f>
+        <v>13.509818181818183</v>
+      </c>
+      <c r="N86" s="71">
+        <v>375</v>
+      </c>
+      <c r="O86" s="73">
+        <v>14.14</v>
+      </c>
+      <c r="P86" s="58"/>
+      <c r="Q86" s="59"/>
+      <c r="R86" s="59"/>
+      <c r="S86" s="59"/>
+      <c r="T86" s="59"/>
+      <c r="U86" s="59"/>
+      <c r="V86" s="59"/>
+      <c r="W86" s="59"/>
+      <c r="X86" s="59"/>
+      <c r="Y86" s="59"/>
+      <c r="Z86" s="59"/>
+      <c r="AA86" s="59"/>
+      <c r="AB86" s="59"/>
+      <c r="AC86" s="59"/>
+      <c r="AD86" s="59"/>
+      <c r="AE86" s="59"/>
+      <c r="AF86" s="59"/>
+      <c r="AG86" s="59"/>
+      <c r="AH86" s="59"/>
+      <c r="AI86" s="60"/>
+      <c r="AJ86" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK86" s="32">
+        <v>1.5783</v>
+      </c>
+      <c r="AL86" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM86" s="14"/>
+    </row>
+    <row r="87" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C87" s="1">
+        <v>300</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H87" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" s="19">
+        <v>15.69</v>
+      </c>
+      <c r="K87" s="21">
+        <f>J87-6.51</f>
+        <v>9.18</v>
+      </c>
+      <c r="L87" s="20">
+        <f>K87*H87</f>
+        <v>7.8948</v>
+      </c>
+      <c r="M87" s="21">
+        <f>L87/(275*2)*1000</f>
+        <v>14.354181818181818</v>
+      </c>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="19">
+        <v>212</v>
+      </c>
+      <c r="Q87" s="19">
+        <v>226</v>
+      </c>
+      <c r="R87" s="19">
+        <v>220</v>
+      </c>
+      <c r="S87" s="16">
+        <v>163</v>
+      </c>
+      <c r="T87" s="16">
+        <v>165</v>
+      </c>
+      <c r="U87" s="16">
+        <v>177</v>
+      </c>
+      <c r="V87" s="22" cm="1">
+        <f t="array" ref="V87">AVERAGE((P87:R87)-30.75)</f>
+        <v>188.58333333333334</v>
+      </c>
+      <c r="W87" s="21">
+        <f>V87/10000</f>
+        <v>1.8858333333333335E-2</v>
+      </c>
+      <c r="X87" s="22">
+        <f>AVERAGE(S87:U87)</f>
+        <v>168.33333333333334</v>
+      </c>
+      <c r="Y87" s="21">
+        <f>X87-30.75</f>
+        <v>137.58333333333334</v>
+      </c>
+      <c r="Z87" s="20">
+        <f>Y87/10000</f>
+        <v>1.3758333333333334E-2</v>
+      </c>
+      <c r="AA87" s="20">
+        <f>11*25*W87</f>
+        <v>5.1860416666666671</v>
+      </c>
+      <c r="AB87" s="20">
+        <f>11*25*Z87</f>
+        <v>3.7835416666666668</v>
+      </c>
+      <c r="AC87" s="21">
+        <f>K87/AA87</f>
+        <v>1.7701361828626518</v>
+      </c>
+      <c r="AD87" s="21">
+        <f>K87/AB87</f>
+        <v>2.4262981113374811</v>
+      </c>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19">
+        <v>3.89</v>
+      </c>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="21">
+        <f>AVERAGE(AE87:AG87)</f>
+        <v>3.89</v>
+      </c>
+      <c r="AI87" s="19">
+        <v>13.09</v>
+      </c>
+      <c r="AJ87" s="56"/>
+      <c r="AK87" s="24"/>
+      <c r="AL87" s="25"/>
+      <c r="AM87" s="14"/>
+    </row>
+    <row r="88" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C88" s="1">
+        <v>300</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H88" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J88" s="3">
+        <v>15.22</v>
+      </c>
+      <c r="K88" s="10">
+        <f>J88-6.51</f>
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="L88" s="9">
+        <f>K88*H88</f>
+        <v>7.4906000000000006</v>
+      </c>
+      <c r="M88" s="10">
+        <f>L88/(275*2)*1000</f>
+        <v>13.619272727272728</v>
+      </c>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="3">
+        <v>211</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>210</v>
+      </c>
+      <c r="R88" s="3">
+        <v>198</v>
+      </c>
+      <c r="S88" s="1">
+        <v>164</v>
+      </c>
+      <c r="T88" s="1">
+        <v>164</v>
+      </c>
+      <c r="U88" s="1">
+        <v>159</v>
+      </c>
+      <c r="V88" s="11" cm="1">
+        <f t="array" ref="V88">AVERAGE((P88:R88)-30.75)</f>
+        <v>175.58333333333334</v>
+      </c>
+      <c r="W88" s="10">
+        <f>V88/10000</f>
+        <v>1.7558333333333336E-2</v>
+      </c>
+      <c r="X88" s="11">
+        <f>AVERAGE(S88:U88)</f>
+        <v>162.33333333333334</v>
+      </c>
+      <c r="Y88" s="10">
+        <f>X88-30.75</f>
+        <v>131.58333333333334</v>
+      </c>
+      <c r="Z88" s="9">
+        <f>Y88/10000</f>
+        <v>1.3158333333333334E-2</v>
+      </c>
+      <c r="AA88" s="9">
+        <f>11*25*W88</f>
+        <v>4.8285416666666672</v>
+      </c>
+      <c r="AB88" s="9">
+        <f>11*25*Z88</f>
+        <v>3.6185416666666668</v>
+      </c>
+      <c r="AC88" s="10">
+        <f>K88/AA88</f>
+        <v>1.8038572722958104</v>
+      </c>
+      <c r="AD88" s="10">
+        <f>K88/AB88</f>
+        <v>2.407047037826012</v>
+      </c>
+      <c r="AE88" s="3"/>
+      <c r="AF88" s="3">
+        <v>4.34</v>
+      </c>
+      <c r="AG88" s="3"/>
+      <c r="AH88" s="10">
+        <f>AVERAGE(AE88:AG88)</f>
+        <v>4.34</v>
+      </c>
+      <c r="AI88" s="3">
+        <v>13.51</v>
+      </c>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="26"/>
+      <c r="AM88" s="14"/>
+    </row>
+    <row r="89" spans="1:39" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C89" s="1">
+        <v>300</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H89" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" s="3">
+        <v>15.37</v>
+      </c>
+      <c r="K89" s="10">
+        <f>J89-6.51</f>
+        <v>8.86</v>
+      </c>
+      <c r="L89" s="9">
+        <f>K89*H89</f>
+        <v>7.6195999999999993</v>
+      </c>
+      <c r="M89" s="10">
+        <f>L89/(275*2)*1000</f>
+        <v>13.85381818181818</v>
+      </c>
+      <c r="O89" s="72"/>
+      <c r="P89" s="3">
+        <v>212</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>221</v>
+      </c>
+      <c r="R89" s="3">
+        <v>208</v>
+      </c>
+      <c r="S89" s="1">
+        <v>153</v>
+      </c>
+      <c r="T89" s="1">
+        <v>159</v>
+      </c>
+      <c r="U89" s="1">
+        <v>165</v>
+      </c>
+      <c r="V89" s="11" cm="1">
+        <f t="array" ref="V89">AVERAGE((P89:R89)-30.75)</f>
+        <v>182.91666666666666</v>
+      </c>
+      <c r="W89" s="10">
+        <f>V89/10000</f>
+        <v>1.8291666666666664E-2</v>
+      </c>
+      <c r="X89" s="11">
+        <f>AVERAGE(S89:U89)</f>
+        <v>159</v>
+      </c>
+      <c r="Y89" s="10">
+        <f>X89-30.75</f>
+        <v>128.25</v>
+      </c>
+      <c r="Z89" s="9">
+        <f>Y89/10000</f>
+        <v>1.2825E-2</v>
+      </c>
+      <c r="AA89" s="9">
+        <f>11*25*W89</f>
+        <v>5.0302083333333325</v>
+      </c>
+      <c r="AB89" s="9">
+        <f>11*25*Z89</f>
+        <v>3.526875</v>
+      </c>
+      <c r="AC89" s="10">
+        <f>K89/AA89</f>
+        <v>1.7613584593083456</v>
+      </c>
+      <c r="AD89" s="10">
+        <f>K89/AB89</f>
+        <v>2.5121389331915647</v>
+      </c>
+      <c r="AE89" s="3"/>
+      <c r="AF89" s="3">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AG89" s="3"/>
+      <c r="AH89" s="10">
+        <f>AVERAGE(AE89:AG89)</f>
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="AI89" s="3">
+        <v>13.87</v>
+      </c>
+      <c r="AJ89" s="13"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="26"/>
+      <c r="AM89" s="14"/>
+    </row>
+    <row r="90" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C90" s="1">
+        <v>300</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H90" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J90" s="3">
+        <v>14.78</v>
+      </c>
+      <c r="K90" s="10">
+        <f>J90-6.51</f>
+        <v>8.27</v>
+      </c>
+      <c r="L90" s="9">
+        <f>K90*H90</f>
+        <v>7.1121999999999996</v>
+      </c>
+      <c r="M90" s="10">
+        <f>L90/(275*2)*1000</f>
+        <v>12.931272727272727</v>
+      </c>
+      <c r="O90" s="72"/>
+      <c r="P90" s="3">
+        <v>182</v>
+      </c>
+      <c r="Q90" s="3">
+        <v>198</v>
+      </c>
+      <c r="R90" s="3">
+        <v>187</v>
+      </c>
+      <c r="S90" s="1">
+        <v>156</v>
+      </c>
+      <c r="T90" s="1">
+        <v>155</v>
+      </c>
+      <c r="U90" s="1">
+        <v>160</v>
+      </c>
+      <c r="V90" s="11" cm="1">
+        <f t="array" ref="V90">AVERAGE((P90:R90)-30.75)</f>
+        <v>158.25</v>
+      </c>
+      <c r="W90" s="10">
+        <f>V90/10000</f>
+        <v>1.5824999999999999E-2</v>
+      </c>
+      <c r="X90" s="11">
+        <f>AVERAGE(S90:U90)</f>
+        <v>157</v>
+      </c>
+      <c r="Y90" s="10">
+        <f>X90-30.75</f>
+        <v>126.25</v>
+      </c>
+      <c r="Z90" s="9">
+        <f>Y90/10000</f>
+        <v>1.2625000000000001E-2</v>
+      </c>
+      <c r="AA90" s="9">
+        <f>11*25*W90</f>
+        <v>4.3518749999999997</v>
+      </c>
+      <c r="AB90" s="9">
+        <f>11*25*Z90</f>
+        <v>3.4718750000000003</v>
+      </c>
+      <c r="AC90" s="10">
+        <f>K90/AA90</f>
+        <v>1.9003303173919288</v>
+      </c>
+      <c r="AD90" s="10">
+        <f>K90/AB90</f>
+        <v>2.3819981998199817</v>
+      </c>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3">
+        <v>7.64</v>
+      </c>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="10">
+        <f>AVERAGE(AE90:AG90)</f>
+        <v>7.64</v>
+      </c>
+      <c r="AI90" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="26"/>
+      <c r="AM90" s="14"/>
+    </row>
+    <row r="91" spans="1:39" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="44">
+        <v>46001</v>
+      </c>
+      <c r="C91" s="1">
+        <v>300</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H91" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J91" s="3">
+        <v>15.38</v>
+      </c>
+      <c r="K91" s="10">
+        <f>J91-6.51</f>
+        <v>8.870000000000001</v>
+      </c>
+      <c r="L91" s="9">
+        <f>K91*H91</f>
+        <v>7.6282000000000005</v>
+      </c>
+      <c r="M91" s="10">
+        <f>L91/(275*2)*1000</f>
+        <v>13.869454545454547</v>
+      </c>
+      <c r="O91" s="72"/>
+      <c r="P91" s="3">
+        <v>212</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>215</v>
+      </c>
+      <c r="R91" s="3">
+        <v>205</v>
+      </c>
+      <c r="S91" s="1">
+        <v>172</v>
+      </c>
+      <c r="T91" s="1">
+        <v>169</v>
+      </c>
+      <c r="U91" s="1">
+        <v>164</v>
+      </c>
+      <c r="V91" s="11" cm="1">
+        <f t="array" ref="V91">AVERAGE((P91:R91)-30.75)</f>
+        <v>179.91666666666666</v>
+      </c>
+      <c r="W91" s="10">
+        <f>V91/10000</f>
+        <v>1.7991666666666666E-2</v>
+      </c>
+      <c r="X91" s="11">
+        <f>AVERAGE(S91:U91)</f>
+        <v>168.33333333333334</v>
+      </c>
+      <c r="Y91" s="10">
+        <f>X91-30.75</f>
+        <v>137.58333333333334</v>
+      </c>
+      <c r="Z91" s="9">
+        <f>Y91/10000</f>
+        <v>1.3758333333333334E-2</v>
+      </c>
+      <c r="AA91" s="9">
+        <f>11*25*W91</f>
+        <v>4.9477083333333329</v>
+      </c>
+      <c r="AB91" s="9">
+        <f>11*25*Z91</f>
+        <v>3.7835416666666668</v>
+      </c>
+      <c r="AC91" s="10">
+        <f>K91/AA91</f>
+        <v>1.7927491683860377</v>
+      </c>
+      <c r="AD91" s="10">
+        <f>K91/AB91</f>
+        <v>2.3443642971202028</v>
+      </c>
+      <c r="AE91" s="3"/>
+      <c r="AF91" s="3">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AG91" s="3"/>
+      <c r="AH91" s="10">
+        <f>AVERAGE(AE91:AG91)</f>
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="AI91" s="3">
+        <v>14.15</v>
+      </c>
+      <c r="AJ91" s="55"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="26"/>
+      <c r="AM91" s="14"/>
+    </row>
+    <row r="92" spans="1:39" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" s="42">
+        <v>46001</v>
+      </c>
+      <c r="C92" s="34">
+        <v>300</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" s="70"/>
+      <c r="G92" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="H92" s="28">
+        <v>0.86</v>
+      </c>
+      <c r="I92" s="27"/>
+      <c r="J92" s="29"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="30">
+        <f>SUM(K87:K91)*H92</f>
+        <v>37.745399999999997</v>
+      </c>
+      <c r="M92" s="29">
+        <f>MIN(M87:M91)</f>
+        <v>12.931272727272727</v>
+      </c>
+      <c r="N92" s="71">
+        <v>200</v>
+      </c>
+      <c r="O92" s="73">
+        <v>7.5</v>
+      </c>
+      <c r="P92" s="58"/>
+      <c r="Q92" s="59"/>
+      <c r="R92" s="59"/>
+      <c r="S92" s="59"/>
+      <c r="T92" s="59"/>
+      <c r="U92" s="59"/>
+      <c r="V92" s="59"/>
+      <c r="W92" s="59"/>
+      <c r="X92" s="59"/>
+      <c r="Y92" s="59"/>
+      <c r="Z92" s="59"/>
+      <c r="AA92" s="59"/>
+      <c r="AB92" s="59"/>
+      <c r="AC92" s="59"/>
+      <c r="AD92" s="59"/>
+      <c r="AE92" s="59"/>
+      <c r="AF92" s="59"/>
+      <c r="AG92" s="59"/>
+      <c r="AH92" s="59"/>
+      <c r="AI92" s="60"/>
+      <c r="AJ92" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK92" s="32">
+        <v>1.5559000000000001</v>
+      </c>
+      <c r="AL92" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM92" s="14"/>
+    </row>
+    <row r="93" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8587,11 +11300,15 @@
     <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
+    <mergeCell ref="P80:AI80"/>
+    <mergeCell ref="P86:AI86"/>
+    <mergeCell ref="P92:AI92"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:R2"/>
+    <mergeCell ref="P74:AI74"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
@@ -8633,7 +11350,7 @@
     <mergeCell ref="P44:AI44"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A7 A9:A13 A15:A19 A39:A43 A33:A37 A21:A25 A27:A31 A57:A61 A45:A49 A51:A55 A63:A67" xr:uid="{C0149C37-497E-495A-B4A3-D286391EA6B9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A7 A9:A13 A15:A19 A39:A43 A33:A37 A21:A25 A27:A31 A57:A61 A45:A49 A51:A55 A63:A67 A81:A85 A69:A73 A75:A79 A87:A91" xr:uid="{C0149C37-497E-495A-B4A3-D286391EA6B9}">
       <formula1>"VN,CA,GF"</formula1>
     </dataValidation>
   </dataValidations>
